--- a/biology/Botanique/Aniseia/Aniseia.xlsx
+++ b/biology/Botanique/Aniseia/Aniseia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aniseia est un genre de plantes dicotylédones de la famille des Convolvulaceae, originaire de régions tropicales et subtropicales d'Amérique, qui compte trois espèces acceptées. Ce sont des plantes herbacées prostrées ou grimpantes à tiges volubiles. Une espèce, Aniseia martinicensis, a été introduite dans les régions tropicales de l'Ancien Monde et s'y est naturalisée.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Aniseia, dérive du terme grec ἄνισος (anisos), « inégal », en référence aux sépales ou segments du calice, inégaux en taille et en forme[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Aniseia, dérive du terme grec ἄνισος (anisos), « inégal », en référence aux sépales ou segments du calice, inégaux en taille et en forme.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 septembre 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 septembre 2019) :
 Aniseia argentina (N.E.Br.) O'Donell (1950)
 Aniseia luxurians (Moric.) Athiê-Souza &amp; Buril (2017)
 Aniseia martinicensis (Jacq.) Choisy (1837)</t>
